--- a/all_data_including_non_ideal.xlsx
+++ b/all_data_including_non_ideal.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Retro PLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D87862-B303-4D5F-82BC-CA9241B5234D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6DF4E-166C-47E0-891C-71BF75FE180C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="18240" windowHeight="8340" xr2:uid="{682495C1-B7A5-4E27-B333-40B2521DD1BB}"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="18240" windowHeight="8340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="clean" sheetId="1" r:id="rId1"/>
+    <sheet name="dose_mg_only" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>day</t>
   </si>
@@ -41,12 +37,18 @@
   <si>
     <t>ideal</t>
   </si>
+  <si>
+    <t>dose_mg</t>
+  </si>
+  <si>
+    <t>body_weight</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +64,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -105,16 +112,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -430,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A98215C-46E2-4B75-8A0B-1BAC46EA5220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5205,4 +5230,6462 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G280"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.4</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G2">
+        <v>5.1546391752577317E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2.8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G3">
+        <v>0.10309278350515461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3.2</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <v>84</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G4">
+        <v>0.15463917525773199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3.1</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G5">
+        <v>0.15463917525773199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7.9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G6">
+        <v>0.30927835051546387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G7">
+        <v>0.30927835051546387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>10.3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>84</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G8">
+        <v>0.30927835051546387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7.6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G9">
+        <v>0.30927835051546387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>10.7</v>
+      </c>
+      <c r="C10">
+        <v>3.5</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G10">
+        <v>0.36082474226804129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>9.4</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11">
+        <v>84</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G11">
+        <v>0.36082474226804129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C12">
+        <v>3.5</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G12">
+        <v>0.36082474226804129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C13">
+        <v>3.5</v>
+      </c>
+      <c r="D13">
+        <v>84</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G13">
+        <v>0.36082474226804129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>84</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>114</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>8.51</v>
+      </c>
+      <c r="G15">
+        <v>0.23501762632197409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>6.2</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+      <c r="D16">
+        <v>114</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>8.51</v>
+      </c>
+      <c r="G16">
+        <v>0.29377203290246767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>10.8</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>114</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>8.51</v>
+      </c>
+      <c r="G17">
+        <v>0.35252643948296131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5.8</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>114</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>8.51</v>
+      </c>
+      <c r="G18">
+        <v>0.35252643948296131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>11.3</v>
+      </c>
+      <c r="C19">
+        <v>3.5</v>
+      </c>
+      <c r="D19">
+        <v>114</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>8.51</v>
+      </c>
+      <c r="G19">
+        <v>0.41128084606345477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>7.5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>114</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>8.51</v>
+      </c>
+      <c r="G20">
+        <v>0.23501762632197409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>6.8</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>114</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>8.51</v>
+      </c>
+      <c r="G21">
+        <v>0.23501762632197409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>114</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>8.51</v>
+      </c>
+      <c r="G22">
+        <v>0.1175088131609871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4.3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>114</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>8.51</v>
+      </c>
+      <c r="G23">
+        <v>0.23501762632197409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>6.1</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>114</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>8.51</v>
+      </c>
+      <c r="G24">
+        <v>0.35252643948296131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>114</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>8.51</v>
+      </c>
+      <c r="G25">
+        <v>0.35252643948296131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3.5</v>
+      </c>
+      <c r="D26">
+        <v>114</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>8.51</v>
+      </c>
+      <c r="G26">
+        <v>0.41128084606345477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>8.6</v>
+      </c>
+      <c r="C27">
+        <v>3.5</v>
+      </c>
+      <c r="D27">
+        <v>114</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>8.51</v>
+      </c>
+      <c r="G27">
+        <v>0.41128084606345477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>6.8</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>114</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>8.51</v>
+      </c>
+      <c r="G28">
+        <v>0.4700352526439483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>114</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>8.51</v>
+      </c>
+      <c r="G29">
+        <v>0.4700352526439483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>7.6</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>114</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>8.51</v>
+      </c>
+      <c r="G30">
+        <v>0.4700352526439483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>15.4</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>114</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>8.51</v>
+      </c>
+      <c r="G31">
+        <v>0.4700352526439483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>114</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>8.51</v>
+      </c>
+      <c r="G32">
+        <v>0.23501762632197409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>114</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>8.51</v>
+      </c>
+      <c r="G33">
+        <v>0.23501762632197409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>3.9</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>114</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>8.51</v>
+      </c>
+      <c r="G34">
+        <v>0.23501762632197409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>5.6</v>
+      </c>
+      <c r="C35">
+        <v>2.5</v>
+      </c>
+      <c r="D35">
+        <v>114</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>8.51</v>
+      </c>
+      <c r="G35">
+        <v>0.29377203290246767</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>114</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>8.51</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>5.6</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>117</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>11.7</v>
+      </c>
+      <c r="G37">
+        <v>8.5470085470085472E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>9.6</v>
+      </c>
+      <c r="C38">
+        <v>1.5</v>
+      </c>
+      <c r="D38">
+        <v>117</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>11.7</v>
+      </c>
+      <c r="G38">
+        <v>0.12820512820512819</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C39">
+        <v>1.5</v>
+      </c>
+      <c r="D39">
+        <v>117</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>11.7</v>
+      </c>
+      <c r="G39">
+        <v>0.12820512820512819</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>7.7</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>117</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>11.7</v>
+      </c>
+      <c r="G40">
+        <v>4.2735042735042743E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>10.1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>117</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>11.7</v>
+      </c>
+      <c r="G41">
+        <v>0.17094017094017089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>11.1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>117</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>11.7</v>
+      </c>
+      <c r="G42">
+        <v>8.5470085470085472E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>7.8</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>117</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>11.7</v>
+      </c>
+      <c r="G43">
+        <v>8.5470085470085472E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>117</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>11.7</v>
+      </c>
+      <c r="G44">
+        <v>0.17094017094017089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>9.9</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>117</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>11.7</v>
+      </c>
+      <c r="G45">
+        <v>0.17094017094017089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>7.7</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>117</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>11.7</v>
+      </c>
+      <c r="G46">
+        <v>0.17094017094017089</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>8.1</v>
+      </c>
+      <c r="C47">
+        <v>2.5</v>
+      </c>
+      <c r="D47">
+        <v>117</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>11.7</v>
+      </c>
+      <c r="G47">
+        <v>0.21367521367521369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>117</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>11.7</v>
+      </c>
+      <c r="G48">
+        <v>0.25641025641025639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>3.4</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>118</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>3.6</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>118</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>48</v>
+      </c>
+      <c r="G50">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>6.2</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>118</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>118</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>48</v>
+      </c>
+      <c r="G52">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>11.2</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>118</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>48</v>
+      </c>
+      <c r="G53">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>118</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>48</v>
+      </c>
+      <c r="G54">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>13.5</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>118</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>48</v>
+      </c>
+      <c r="G55">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>12.6</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>118</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>48</v>
+      </c>
+      <c r="G56">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>9.9</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>118</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>48</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>12.7</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>118</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>48</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>10.4</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>118</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>48</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>118</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>48</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <v>120</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G61">
+        <v>5.3304904051172712E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>4.5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>120</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G62">
+        <v>0.1066098081023454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>4.8</v>
+      </c>
+      <c r="C63">
+        <v>1.5</v>
+      </c>
+      <c r="D63">
+        <v>120</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G63">
+        <v>0.1599147121535181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>120</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G64">
+        <v>0.21321961620469079</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>7.1</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>120</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G65">
+        <v>0.3198294243070362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>11.2</v>
+      </c>
+      <c r="C66">
+        <v>3.5</v>
+      </c>
+      <c r="D66">
+        <v>120</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G66">
+        <v>0.37313432835820892</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>9.9</v>
+      </c>
+      <c r="C67">
+        <v>3.5</v>
+      </c>
+      <c r="D67">
+        <v>120</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G67">
+        <v>0.37313432835820892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>3.5</v>
+      </c>
+      <c r="D68">
+        <v>120</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G68">
+        <v>0.37313432835820892</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>7.1</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>120</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G69">
+        <v>0.3198294243070362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70">
+        <v>5.4</v>
+      </c>
+      <c r="C70">
+        <v>3.5</v>
+      </c>
+      <c r="D70">
+        <v>120</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G70">
+        <v>0.37313432835820892</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>6.9</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>120</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G71">
+        <v>0.42643923240938159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>8.1</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>120</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G72">
+        <v>0.53304904051172708</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>11.5</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>120</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G73">
+        <v>0.53304904051172708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>11.4</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>120</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G74">
+        <v>0.53304904051172708</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>10.1</v>
+      </c>
+      <c r="C75">
+        <v>4.5</v>
+      </c>
+      <c r="D75">
+        <v>120</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G75">
+        <v>0.4797441364605543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>7.5</v>
+      </c>
+      <c r="C76">
+        <v>4.5</v>
+      </c>
+      <c r="D76">
+        <v>120</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G76">
+        <v>0.4797441364605543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>7.1</v>
+      </c>
+      <c r="C77">
+        <v>4.5</v>
+      </c>
+      <c r="D77">
+        <v>120</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G77">
+        <v>0.4797441364605543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>7.9</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>120</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G78">
+        <v>0.53304904051172708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>10.6</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>120</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G79">
+        <v>0.53304904051172708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>23</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>4.5</v>
+      </c>
+      <c r="D80">
+        <v>120</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G80">
+        <v>0.4797441364605543</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>120</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G81">
+        <v>0.42643923240938159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>25</v>
+      </c>
+      <c r="B82">
+        <v>11.7</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>120</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G82">
+        <v>0.42643923240938159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>26</v>
+      </c>
+      <c r="B83">
+        <v>11.3</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>120</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G83">
+        <v>0.42643923240938159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>27</v>
+      </c>
+      <c r="B84">
+        <v>10.6</v>
+      </c>
+      <c r="C84">
+        <v>3.5</v>
+      </c>
+      <c r="D84">
+        <v>120</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G84">
+        <v>0.37313432835820892</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>21.6</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>121</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>50.2</v>
+      </c>
+      <c r="G85">
+        <v>7.9681274900398405E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>12.9</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>121</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>50.2</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>12.4</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>121</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>50.2</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>121</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>50.2</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>5.6</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>121</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>50.2</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>5.4</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>121</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>50.2</v>
+      </c>
+      <c r="G90">
+        <v>1.9920318725099601E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>121</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>50.2</v>
+      </c>
+      <c r="G91">
+        <v>1.9920318725099601E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>7.6</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>121</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>50.2</v>
+      </c>
+      <c r="G92">
+        <v>1.9920318725099601E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>7.6</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>121</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>50.2</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>6.3</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>121</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>50.2</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>6.2</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>121</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>50.2</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>19</v>
+      </c>
+      <c r="B96">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>121</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>50.2</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>23</v>
+      </c>
+      <c r="B97">
+        <v>6.8</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>121</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>50.2</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>7.7</v>
+      </c>
+      <c r="C98">
+        <v>1.5</v>
+      </c>
+      <c r="D98">
+        <v>122</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98">
+        <v>0.13636363636363641</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>122</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>6.5</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>122</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>1.5</v>
+      </c>
+      <c r="D101">
+        <v>122</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+      <c r="G101">
+        <v>0.13636363636363641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>11.5</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>122</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>122</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>6.9</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>122</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>16.8</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>122</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>12.5</v>
+      </c>
+      <c r="C106">
+        <v>2.5</v>
+      </c>
+      <c r="D106">
+        <v>122</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106">
+        <v>0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>12.4</v>
+      </c>
+      <c r="C107">
+        <v>2.5</v>
+      </c>
+      <c r="D107">
+        <v>122</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>9.6</v>
+      </c>
+      <c r="C108">
+        <v>2.5</v>
+      </c>
+      <c r="D108">
+        <v>122</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>13</v>
+      </c>
+      <c r="B109">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C109">
+        <v>2.5</v>
+      </c>
+      <c r="D109">
+        <v>122</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109">
+        <v>0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>14</v>
+      </c>
+      <c r="B110">
+        <v>7.5</v>
+      </c>
+      <c r="C110">
+        <v>2.5</v>
+      </c>
+      <c r="D110">
+        <v>122</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110">
+        <v>0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>8.9</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>122</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>7.4</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>122</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>11</v>
+      </c>
+      <c r="G112">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>9.1</v>
+      </c>
+      <c r="C113">
+        <v>3.5</v>
+      </c>
+      <c r="D113">
+        <v>122</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>11</v>
+      </c>
+      <c r="G113">
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114">
+        <v>11.4</v>
+      </c>
+      <c r="C114">
+        <v>3.5</v>
+      </c>
+      <c r="D114">
+        <v>122</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+      <c r="G114">
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>19</v>
+      </c>
+      <c r="B115">
+        <v>14.3</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>122</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>11</v>
+      </c>
+      <c r="G115">
+        <v>0.36363636363636359</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116">
+        <v>11.2</v>
+      </c>
+      <c r="C116">
+        <v>3.5</v>
+      </c>
+      <c r="D116">
+        <v>122</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>11</v>
+      </c>
+      <c r="G116">
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>11.9</v>
+      </c>
+      <c r="C117">
+        <v>3.5</v>
+      </c>
+      <c r="D117">
+        <v>122</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>11</v>
+      </c>
+      <c r="G117">
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>24</v>
+      </c>
+      <c r="B118">
+        <v>11.1</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>122</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>11</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>3.6</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>123</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>11.1</v>
+      </c>
+      <c r="G119">
+        <v>9.00900900900901E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>5.6</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>123</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>11.1</v>
+      </c>
+      <c r="G120">
+        <v>0.1801801801801802</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>7.4</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>123</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>11.1</v>
+      </c>
+      <c r="G121">
+        <v>0.27027027027027029</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>123</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>11.1</v>
+      </c>
+      <c r="G122">
+        <v>0.27027027027027029</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>7.8</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>123</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>11.1</v>
+      </c>
+      <c r="G123">
+        <v>0.27027027027027029</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C124">
+        <v>3.5</v>
+      </c>
+      <c r="D124">
+        <v>123</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>11.1</v>
+      </c>
+      <c r="G124">
+        <v>0.31531531531531531</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>7.4</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>123</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>11.1</v>
+      </c>
+      <c r="G125">
+        <v>0.27027027027027029</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>6.3</v>
+      </c>
+      <c r="C126">
+        <v>3.5</v>
+      </c>
+      <c r="D126">
+        <v>123</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>11.1</v>
+      </c>
+      <c r="G126">
+        <v>0.31531531531531531</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>5.5</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>123</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>11.1</v>
+      </c>
+      <c r="G127">
+        <v>0.54054054054054057</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>10</v>
+      </c>
+      <c r="B128">
+        <v>4.5</v>
+      </c>
+      <c r="C128">
+        <v>4.5</v>
+      </c>
+      <c r="D128">
+        <v>123</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>11.1</v>
+      </c>
+      <c r="G128">
+        <v>0.40540540540540537</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>8.4</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>125</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>13.5</v>
+      </c>
+      <c r="G129">
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>4</v>
+      </c>
+      <c r="B130">
+        <v>7.7</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>125</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>13.5</v>
+      </c>
+      <c r="G130">
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <v>9.4</v>
+      </c>
+      <c r="C131">
+        <v>1.5</v>
+      </c>
+      <c r="D131">
+        <v>125</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>13.5</v>
+      </c>
+      <c r="G131">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>1.5</v>
+      </c>
+      <c r="D132">
+        <v>125</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>13.5</v>
+      </c>
+      <c r="G132">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <v>7.9</v>
+      </c>
+      <c r="C133">
+        <v>1.5</v>
+      </c>
+      <c r="D133">
+        <v>125</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>13.5</v>
+      </c>
+      <c r="G133">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>8</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>125</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>13.5</v>
+      </c>
+      <c r="G134">
+        <v>0.14814814814814811</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>9</v>
+      </c>
+      <c r="B135">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C135">
+        <v>1.5</v>
+      </c>
+      <c r="D135">
+        <v>125</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>13.5</v>
+      </c>
+      <c r="G135">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>10</v>
+      </c>
+      <c r="B136">
+        <v>14.6</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>125</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>13.5</v>
+      </c>
+      <c r="G136">
+        <v>0.14814814814814811</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>11</v>
+      </c>
+      <c r="B137">
+        <v>7.7</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>125</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>13.5</v>
+      </c>
+      <c r="G137">
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>12</v>
+      </c>
+      <c r="B138">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C138">
+        <v>1.5</v>
+      </c>
+      <c r="D138">
+        <v>125</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>13.5</v>
+      </c>
+      <c r="G138">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>13</v>
+      </c>
+      <c r="B139">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C139">
+        <v>1.5</v>
+      </c>
+      <c r="D139">
+        <v>125</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>13.5</v>
+      </c>
+      <c r="G139">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>17</v>
+      </c>
+      <c r="B140">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>125</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>13.5</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>20</v>
+      </c>
+      <c r="B141">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>125</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>13.5</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>24</v>
+      </c>
+      <c r="B142">
+        <v>7.7</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>125</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>13.5</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C143">
+        <v>0.5</v>
+      </c>
+      <c r="D143">
+        <v>126</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>14</v>
+      </c>
+      <c r="G143">
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>3.8</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>126</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>14</v>
+      </c>
+      <c r="G144">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>2.1</v>
+      </c>
+      <c r="C145">
+        <v>0.5</v>
+      </c>
+      <c r="D145">
+        <v>126</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>14</v>
+      </c>
+      <c r="G145">
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>4.7</v>
+      </c>
+      <c r="C146">
+        <v>1.5</v>
+      </c>
+      <c r="D146">
+        <v>126</v>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>14</v>
+      </c>
+      <c r="G146">
+        <v>0.1071428571428571</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>2.5</v>
+      </c>
+      <c r="D147">
+        <v>126</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>7.6</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>126</v>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>14</v>
+      </c>
+      <c r="G148">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>10</v>
+      </c>
+      <c r="B149">
+        <v>10.9</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>126</v>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>14</v>
+      </c>
+      <c r="G149">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>12</v>
+      </c>
+      <c r="B150">
+        <v>7.8</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>126</v>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>14</v>
+      </c>
+      <c r="G150">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>13</v>
+      </c>
+      <c r="B151">
+        <v>12.4</v>
+      </c>
+      <c r="C151">
+        <v>2.5</v>
+      </c>
+      <c r="D151">
+        <v>126</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>14</v>
+      </c>
+      <c r="G151">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>7.1</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>126</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>14</v>
+      </c>
+      <c r="G152">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>17</v>
+      </c>
+      <c r="B153">
+        <v>8.5</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>126</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>14</v>
+      </c>
+      <c r="G153">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>19</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>126</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>14</v>
+      </c>
+      <c r="G154">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>20</v>
+      </c>
+      <c r="B155">
+        <v>10.7</v>
+      </c>
+      <c r="C155">
+        <v>2.5</v>
+      </c>
+      <c r="D155">
+        <v>126</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>14</v>
+      </c>
+      <c r="G155">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>21</v>
+      </c>
+      <c r="B156">
+        <v>11.1</v>
+      </c>
+      <c r="C156">
+        <v>2.5</v>
+      </c>
+      <c r="D156">
+        <v>126</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>14</v>
+      </c>
+      <c r="G156">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>22</v>
+      </c>
+      <c r="B157">
+        <v>12.1</v>
+      </c>
+      <c r="C157">
+        <v>2.5</v>
+      </c>
+      <c r="D157">
+        <v>126</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>14</v>
+      </c>
+      <c r="G157">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>23</v>
+      </c>
+      <c r="B158">
+        <v>10.7</v>
+      </c>
+      <c r="C158">
+        <v>2.5</v>
+      </c>
+      <c r="D158">
+        <v>126</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>14</v>
+      </c>
+      <c r="G158">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>24</v>
+      </c>
+      <c r="B159">
+        <v>12.9</v>
+      </c>
+      <c r="C159">
+        <v>2.5</v>
+      </c>
+      <c r="D159">
+        <v>126</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>14</v>
+      </c>
+      <c r="G159">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>25</v>
+      </c>
+      <c r="B160">
+        <v>13.6</v>
+      </c>
+      <c r="C160">
+        <v>2.5</v>
+      </c>
+      <c r="D160">
+        <v>126</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>14</v>
+      </c>
+      <c r="G160">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>27</v>
+      </c>
+      <c r="B161">
+        <v>12.4</v>
+      </c>
+      <c r="C161">
+        <v>2.5</v>
+      </c>
+      <c r="D161">
+        <v>126</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>14</v>
+      </c>
+      <c r="G161">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>28</v>
+      </c>
+      <c r="B162">
+        <v>11.5</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>126</v>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>14</v>
+      </c>
+      <c r="G162">
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>129</v>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>30</v>
+      </c>
+      <c r="G163">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>11.1</v>
+      </c>
+      <c r="C164">
+        <v>1.5</v>
+      </c>
+      <c r="D164">
+        <v>129</v>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>30</v>
+      </c>
+      <c r="G164">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>7.9</v>
+      </c>
+      <c r="C165">
+        <v>1.5</v>
+      </c>
+      <c r="D165">
+        <v>129</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C166">
+        <v>2.5</v>
+      </c>
+      <c r="D166">
+        <v>129</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>30</v>
+      </c>
+      <c r="G166">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>2.5</v>
+      </c>
+      <c r="D167">
+        <v>129</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>30</v>
+      </c>
+      <c r="G167">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>129</v>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>30</v>
+      </c>
+      <c r="G168">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>9.1</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>129</v>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>30</v>
+      </c>
+      <c r="G169">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>8</v>
+      </c>
+      <c r="B170">
+        <v>10.6</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>129</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>30</v>
+      </c>
+      <c r="G170">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>8.6</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>129</v>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+      <c r="G171">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <v>7.3</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>129</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>30</v>
+      </c>
+      <c r="G172">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>11</v>
+      </c>
+      <c r="B173">
+        <v>7.6</v>
+      </c>
+      <c r="C173">
+        <v>2.5</v>
+      </c>
+      <c r="D173">
+        <v>129</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>30</v>
+      </c>
+      <c r="G173">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>12</v>
+      </c>
+      <c r="B174">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C174">
+        <v>2.5</v>
+      </c>
+      <c r="D174">
+        <v>129</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>30</v>
+      </c>
+      <c r="G174">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>7.1</v>
+      </c>
+      <c r="C175">
+        <v>2.5</v>
+      </c>
+      <c r="D175">
+        <v>129</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>30</v>
+      </c>
+      <c r="G175">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>7.1</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>129</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>30</v>
+      </c>
+      <c r="G176">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>16</v>
+      </c>
+      <c r="B177">
+        <v>5.2</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>129</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>30</v>
+      </c>
+      <c r="G177">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>18</v>
+      </c>
+      <c r="B178">
+        <v>6.9</v>
+      </c>
+      <c r="C178">
+        <v>3.5</v>
+      </c>
+      <c r="D178">
+        <v>129</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>30</v>
+      </c>
+      <c r="G178">
+        <v>0.1166666666666667</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>19</v>
+      </c>
+      <c r="B179">
+        <v>6.3</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>129</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>20</v>
+      </c>
+      <c r="B180">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180">
+        <v>129</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180">
+        <v>0.16666666666666671</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>25</v>
+      </c>
+      <c r="B181">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>129</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>30</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>6</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>130</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G182">
+        <v>5.10204081632653E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>1.5</v>
+      </c>
+      <c r="D183">
+        <v>130</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G183">
+        <v>7.6530612244897947E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>5.2</v>
+      </c>
+      <c r="C184">
+        <v>1.5</v>
+      </c>
+      <c r="D184">
+        <v>130</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G184">
+        <v>7.6530612244897947E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185">
+        <v>5.5</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>130</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G185">
+        <v>0.1020408163265306</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186">
+        <v>7.7</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>130</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G186">
+        <v>0.15306122448979589</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>10.5</v>
+      </c>
+      <c r="C187">
+        <v>3.5</v>
+      </c>
+      <c r="D187">
+        <v>130</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G187">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188">
+        <v>10.1</v>
+      </c>
+      <c r="C188">
+        <v>3.5</v>
+      </c>
+      <c r="D188">
+        <v>130</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G188">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>9</v>
+      </c>
+      <c r="B189">
+        <v>11.2</v>
+      </c>
+      <c r="C189">
+        <v>3.5</v>
+      </c>
+      <c r="D189">
+        <v>130</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G189">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>11.8</v>
+      </c>
+      <c r="C190">
+        <v>3.5</v>
+      </c>
+      <c r="D190">
+        <v>130</v>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G190">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>11</v>
+      </c>
+      <c r="B191">
+        <v>15.1</v>
+      </c>
+      <c r="C191">
+        <v>3.5</v>
+      </c>
+      <c r="D191">
+        <v>130</v>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G191">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>12</v>
+      </c>
+      <c r="B192">
+        <v>10.3</v>
+      </c>
+      <c r="C192">
+        <v>2.5</v>
+      </c>
+      <c r="D192">
+        <v>130</v>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G192">
+        <v>0.1275510204081633</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>13</v>
+      </c>
+      <c r="B193">
+        <v>7.6</v>
+      </c>
+      <c r="C193">
+        <v>2.5</v>
+      </c>
+      <c r="D193">
+        <v>130</v>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G193">
+        <v>0.1275510204081633</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>14</v>
+      </c>
+      <c r="B194">
+        <v>6.3</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>130</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G194">
+        <v>0.15306122448979589</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>15</v>
+      </c>
+      <c r="B195">
+        <v>6.9</v>
+      </c>
+      <c r="C195">
+        <v>3.5</v>
+      </c>
+      <c r="D195">
+        <v>130</v>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G195">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>16</v>
+      </c>
+      <c r="B196">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C196">
+        <v>3.5</v>
+      </c>
+      <c r="D196">
+        <v>130</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G196">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>18</v>
+      </c>
+      <c r="B197">
+        <v>10.5</v>
+      </c>
+      <c r="C197">
+        <v>3.5</v>
+      </c>
+      <c r="D197">
+        <v>130</v>
+      </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G197">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>20</v>
+      </c>
+      <c r="B198">
+        <v>7.8</v>
+      </c>
+      <c r="C198">
+        <v>3.5</v>
+      </c>
+      <c r="D198">
+        <v>130</v>
+      </c>
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G198">
+        <v>0.17857142857142849</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>22</v>
+      </c>
+      <c r="B199">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>130</v>
+      </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G199">
+        <v>0.2040816326530612</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>25</v>
+      </c>
+      <c r="B200">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>130</v>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G200">
+        <v>0.2040816326530612</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>28</v>
+      </c>
+      <c r="B201">
+        <v>10.8</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>130</v>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G201">
+        <v>0.2040816326530612</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>5.4</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>131</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G202">
+        <v>0.120627261761158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>131</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G203">
+        <v>0.120627261761158</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>6.9</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>131</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G204">
+        <v>0.24125452352231611</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>6.4</v>
+      </c>
+      <c r="C205">
+        <v>2.5</v>
+      </c>
+      <c r="D205">
+        <v>131</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G205">
+        <v>0.30156815440289508</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>9.1</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>131</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G206">
+        <v>0.36188178528347409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="B207">
+        <v>6.3</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>131</v>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G207">
+        <v>0.36188178528347409</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>6.7</v>
+      </c>
+      <c r="C208">
+        <v>3.5</v>
+      </c>
+      <c r="D208">
+        <v>131</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G208">
+        <v>0.42219541616405309</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>6.5</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>131</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G209">
+        <v>0.48250904704463221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>8.5</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+      <c r="D210">
+        <v>131</v>
+      </c>
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G210">
+        <v>0.60313630880579017</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>11</v>
+      </c>
+      <c r="B211">
+        <v>6.3</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+      <c r="D211">
+        <v>131</v>
+      </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G211">
+        <v>0.60313630880579017</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>12</v>
+      </c>
+      <c r="B212">
+        <v>6.2</v>
+      </c>
+      <c r="C212">
+        <v>6.5</v>
+      </c>
+      <c r="D212">
+        <v>131</v>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G212">
+        <v>0.78407720144752724</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>13</v>
+      </c>
+      <c r="B213">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>6</v>
+      </c>
+      <c r="D213">
+        <v>131</v>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G213">
+        <v>0.72376357056694818</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>14</v>
+      </c>
+      <c r="B214">
+        <v>9.9</v>
+      </c>
+      <c r="C214">
+        <v>6</v>
+      </c>
+      <c r="D214">
+        <v>131</v>
+      </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G214">
+        <v>0.72376357056694818</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>16</v>
+      </c>
+      <c r="B215">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C215">
+        <v>6</v>
+      </c>
+      <c r="D215">
+        <v>131</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G215">
+        <v>0.72376357056694818</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>17</v>
+      </c>
+      <c r="B216">
+        <v>7.2</v>
+      </c>
+      <c r="C216">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>131</v>
+      </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G216">
+        <v>0.72376357056694818</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>18</v>
+      </c>
+      <c r="B217">
+        <v>8</v>
+      </c>
+      <c r="C217">
+        <v>7</v>
+      </c>
+      <c r="D217">
+        <v>131</v>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G217">
+        <v>0.84439083232810619</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>20</v>
+      </c>
+      <c r="B218">
+        <v>12</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+      <c r="D218">
+        <v>131</v>
+      </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G218">
+        <v>0.84439083232810619</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>22</v>
+      </c>
+      <c r="B219">
+        <v>7.7</v>
+      </c>
+      <c r="C219">
+        <v>6.5</v>
+      </c>
+      <c r="D219">
+        <v>131</v>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G219">
+        <v>0.78407720144752724</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>25</v>
+      </c>
+      <c r="B220">
+        <v>7.5</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>131</v>
+      </c>
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>28</v>
+      </c>
+      <c r="B221">
+        <v>8.4</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>131</v>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>4.2</v>
+      </c>
+      <c r="C222">
+        <v>0.5</v>
+      </c>
+      <c r="D222">
+        <v>132</v>
+      </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>8.5</v>
+      </c>
+      <c r="G222">
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223">
+        <v>7.1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>132</v>
+      </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>8.5</v>
+      </c>
+      <c r="G223">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>4</v>
+      </c>
+      <c r="B224">
+        <v>7.1</v>
+      </c>
+      <c r="C224">
+        <v>1.5</v>
+      </c>
+      <c r="D224">
+        <v>132</v>
+      </c>
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>8.5</v>
+      </c>
+      <c r="G224">
+        <v>0.1764705882352941</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>5</v>
+      </c>
+      <c r="B225">
+        <v>7.6</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>132</v>
+      </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>8.5</v>
+      </c>
+      <c r="G225">
+        <v>0.23529411764705879</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>6</v>
+      </c>
+      <c r="B226">
+        <v>27.5</v>
+      </c>
+      <c r="C226">
+        <v>2.5</v>
+      </c>
+      <c r="D226">
+        <v>132</v>
+      </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>8.5</v>
+      </c>
+      <c r="G226">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>7</v>
+      </c>
+      <c r="B227">
+        <v>15.8</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>132</v>
+      </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>8.5</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>8</v>
+      </c>
+      <c r="B228">
+        <v>11.1</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>132</v>
+      </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>8.5</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>9</v>
+      </c>
+      <c r="B229">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C229">
+        <v>0.5</v>
+      </c>
+      <c r="D229">
+        <v>132</v>
+      </c>
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>8.5</v>
+      </c>
+      <c r="G229">
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>10</v>
+      </c>
+      <c r="B230">
+        <v>7.5</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>132</v>
+      </c>
+      <c r="E230" t="b">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>8.5</v>
+      </c>
+      <c r="G230">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>11</v>
+      </c>
+      <c r="B231">
+        <v>8.5</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>132</v>
+      </c>
+      <c r="E231" t="b">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>8.5</v>
+      </c>
+      <c r="G231">
+        <v>0.35294117647058831</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>12</v>
+      </c>
+      <c r="B232">
+        <v>20.8</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+      <c r="D232">
+        <v>132</v>
+      </c>
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>8.5</v>
+      </c>
+      <c r="G232">
+        <v>0.47058823529411759</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>13</v>
+      </c>
+      <c r="B233">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>132</v>
+      </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>8.5</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>14</v>
+      </c>
+      <c r="B234">
+        <v>9</v>
+      </c>
+      <c r="C234">
+        <v>1.5</v>
+      </c>
+      <c r="D234">
+        <v>132</v>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>8.5</v>
+      </c>
+      <c r="G234">
+        <v>0.1764705882352941</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>15</v>
+      </c>
+      <c r="B235">
+        <v>10.7</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>132</v>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>8.5</v>
+      </c>
+      <c r="G235">
+        <v>0.23529411764705879</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>16</v>
+      </c>
+      <c r="B236">
+        <v>7.8</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>132</v>
+      </c>
+      <c r="E236" t="b">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>8.5</v>
+      </c>
+      <c r="G236">
+        <v>0.23529411764705879</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>17</v>
+      </c>
+      <c r="B237">
+        <v>10.5</v>
+      </c>
+      <c r="C237">
+        <v>2.5</v>
+      </c>
+      <c r="D237">
+        <v>132</v>
+      </c>
+      <c r="E237" t="b">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>8.5</v>
+      </c>
+      <c r="G237">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>18</v>
+      </c>
+      <c r="B238">
+        <v>12.2</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>132</v>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>8.5</v>
+      </c>
+      <c r="G238">
+        <v>0.23529411764705879</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>19</v>
+      </c>
+      <c r="B239">
+        <v>11.7</v>
+      </c>
+      <c r="C239">
+        <v>1.5</v>
+      </c>
+      <c r="D239">
+        <v>132</v>
+      </c>
+      <c r="E239" t="b">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>8.5</v>
+      </c>
+      <c r="G239">
+        <v>0.1764705882352941</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>20</v>
+      </c>
+      <c r="B240">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C240">
+        <v>1.5</v>
+      </c>
+      <c r="D240">
+        <v>132</v>
+      </c>
+      <c r="E240" t="b">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>8.5</v>
+      </c>
+      <c r="G240">
+        <v>0.1764705882352941</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>21</v>
+      </c>
+      <c r="B241">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>132</v>
+      </c>
+      <c r="E241" t="b">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>8.5</v>
+      </c>
+      <c r="G241">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>22</v>
+      </c>
+      <c r="B242">
+        <v>9.9</v>
+      </c>
+      <c r="C242">
+        <v>0.5</v>
+      </c>
+      <c r="D242">
+        <v>132</v>
+      </c>
+      <c r="E242" t="b">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>8.5</v>
+      </c>
+      <c r="G242">
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>23</v>
+      </c>
+      <c r="B243">
+        <v>9.5</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>132</v>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>8.5</v>
+      </c>
+      <c r="G243">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>24</v>
+      </c>
+      <c r="B244">
+        <v>10.3</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>132</v>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>8.5</v>
+      </c>
+      <c r="G244">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>25</v>
+      </c>
+      <c r="B245">
+        <v>10.5</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>132</v>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>8.5</v>
+      </c>
+      <c r="G245">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>26</v>
+      </c>
+      <c r="B246">
+        <v>13.9</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>132</v>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>8.5</v>
+      </c>
+      <c r="G246">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>27</v>
+      </c>
+      <c r="B247">
+        <v>11.1</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>132</v>
+      </c>
+      <c r="E247" t="b">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>8.5</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>28</v>
+      </c>
+      <c r="B248">
+        <v>11.1</v>
+      </c>
+      <c r="C248">
+        <v>0.5</v>
+      </c>
+      <c r="D248">
+        <v>132</v>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>8.5</v>
+      </c>
+      <c r="G248">
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>29</v>
+      </c>
+      <c r="B249">
+        <v>11.1</v>
+      </c>
+      <c r="C249">
+        <v>0.5</v>
+      </c>
+      <c r="D249">
+        <v>132</v>
+      </c>
+      <c r="E249" t="b">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>8.5</v>
+      </c>
+      <c r="G249">
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>5</v>
+      </c>
+      <c r="B250">
+        <v>7.7</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>133</v>
+      </c>
+      <c r="E250" t="b">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>34.75</v>
+      </c>
+      <c r="G250">
+        <v>5.7553956834532377E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>6</v>
+      </c>
+      <c r="B251">
+        <v>6.1</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>133</v>
+      </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>34.75</v>
+      </c>
+      <c r="G251">
+        <v>5.7553956834532377E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>7</v>
+      </c>
+      <c r="B252">
+        <v>6</v>
+      </c>
+      <c r="C252">
+        <v>2.5</v>
+      </c>
+      <c r="D252">
+        <v>133</v>
+      </c>
+      <c r="E252" t="b">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>34.75</v>
+      </c>
+      <c r="G252">
+        <v>7.1942446043165464E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>8</v>
+      </c>
+      <c r="B253">
+        <v>5.7</v>
+      </c>
+      <c r="C253">
+        <v>2.5</v>
+      </c>
+      <c r="D253">
+        <v>133</v>
+      </c>
+      <c r="E253" t="b">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>34.75</v>
+      </c>
+      <c r="G253">
+        <v>7.1942446043165464E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>9</v>
+      </c>
+      <c r="B254">
+        <v>6.5</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>133</v>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>34.75</v>
+      </c>
+      <c r="G254">
+        <v>8.6330935251798566E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>11</v>
+      </c>
+      <c r="B255">
+        <v>6.7</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255">
+        <v>133</v>
+      </c>
+      <c r="E255" t="b">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>34.75</v>
+      </c>
+      <c r="G255">
+        <v>8.6330935251798566E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>15</v>
+      </c>
+      <c r="B256">
+        <v>7.4</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256">
+        <v>133</v>
+      </c>
+      <c r="E256" t="b">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>34.75</v>
+      </c>
+      <c r="G256">
+        <v>8.6330935251798566E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>18</v>
+      </c>
+      <c r="B257">
+        <v>6.2</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>133</v>
+      </c>
+      <c r="E257" t="b">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>34.75</v>
+      </c>
+      <c r="G257">
+        <v>8.6330935251798566E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>21</v>
+      </c>
+      <c r="B258">
+        <v>6.5</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>133</v>
+      </c>
+      <c r="E258" t="b">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>34.75</v>
+      </c>
+      <c r="G258">
+        <v>8.6330935251798566E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>138</v>
+      </c>
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>18.45</v>
+      </c>
+      <c r="G259">
+        <v>5.4200542005420058E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>10.6</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>138</v>
+      </c>
+      <c r="E260" t="b">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>18.45</v>
+      </c>
+      <c r="G260">
+        <v>0.1084010840108401</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C261">
+        <v>1.5</v>
+      </c>
+      <c r="D261">
+        <v>138</v>
+      </c>
+      <c r="E261" t="b">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>18.45</v>
+      </c>
+      <c r="G261">
+        <v>8.1300813008130079E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>138</v>
+      </c>
+      <c r="E262" t="b">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>18.45</v>
+      </c>
+      <c r="G262">
+        <v>5.4200542005420058E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>1.5</v>
+      </c>
+      <c r="D263">
+        <v>138</v>
+      </c>
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>18.45</v>
+      </c>
+      <c r="G263">
+        <v>8.1300813008130079E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <v>7.4</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>138</v>
+      </c>
+      <c r="E264" t="b">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>18.45</v>
+      </c>
+      <c r="G264">
+        <v>0.1084010840108401</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>7</v>
+      </c>
+      <c r="B265">
+        <v>11.2</v>
+      </c>
+      <c r="C265">
+        <v>2.5</v>
+      </c>
+      <c r="D265">
+        <v>138</v>
+      </c>
+      <c r="E265" t="b">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>18.45</v>
+      </c>
+      <c r="G265">
+        <v>0.13550135501355021</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>8</v>
+      </c>
+      <c r="B266">
+        <v>7.2</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>138</v>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>18.45</v>
+      </c>
+      <c r="G266">
+        <v>0.1084010840108401</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>9</v>
+      </c>
+      <c r="B267">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C267">
+        <v>2.5</v>
+      </c>
+      <c r="D267">
+        <v>138</v>
+      </c>
+      <c r="E267" t="b">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>18.45</v>
+      </c>
+      <c r="G267">
+        <v>0.13550135501355021</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>10</v>
+      </c>
+      <c r="B268">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C268">
+        <v>2.5</v>
+      </c>
+      <c r="D268">
+        <v>138</v>
+      </c>
+      <c r="E268" t="b">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>18.45</v>
+      </c>
+      <c r="G268">
+        <v>0.13550135501355021</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>11</v>
+      </c>
+      <c r="B269">
+        <v>15.2</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269">
+        <v>138</v>
+      </c>
+      <c r="E269" t="b">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>18.45</v>
+      </c>
+      <c r="G269">
+        <v>0.16260162601626019</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>12</v>
+      </c>
+      <c r="B270">
+        <v>11.7</v>
+      </c>
+      <c r="C270">
+        <v>1.5</v>
+      </c>
+      <c r="D270">
+        <v>138</v>
+      </c>
+      <c r="E270" t="b">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>18.45</v>
+      </c>
+      <c r="G270">
+        <v>8.1300813008130079E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>13</v>
+      </c>
+      <c r="B271">
+        <v>9.4</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>138</v>
+      </c>
+      <c r="E271" t="b">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>18.45</v>
+      </c>
+      <c r="G271">
+        <v>0.1084010840108401</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>14</v>
+      </c>
+      <c r="B272">
+        <v>6.6</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>138</v>
+      </c>
+      <c r="E272" t="b">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>18.45</v>
+      </c>
+      <c r="G272">
+        <v>0.1084010840108401</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>15</v>
+      </c>
+      <c r="B273">
+        <v>8.6</v>
+      </c>
+      <c r="C273">
+        <v>2.5</v>
+      </c>
+      <c r="D273">
+        <v>138</v>
+      </c>
+      <c r="E273" t="b">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>18.45</v>
+      </c>
+      <c r="G273">
+        <v>0.13550135501355021</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>16</v>
+      </c>
+      <c r="B274">
+        <v>9</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>138</v>
+      </c>
+      <c r="E274" t="b">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>18.45</v>
+      </c>
+      <c r="G274">
+        <v>0.16260162601626019</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>17</v>
+      </c>
+      <c r="B275">
+        <v>5.9</v>
+      </c>
+      <c r="C275">
+        <v>1.5</v>
+      </c>
+      <c r="D275">
+        <v>138</v>
+      </c>
+      <c r="E275" t="b">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>18.45</v>
+      </c>
+      <c r="G275">
+        <v>8.1300813008130079E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>18</v>
+      </c>
+      <c r="B276">
+        <v>5.5</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>138</v>
+      </c>
+      <c r="E276" t="b">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>18.45</v>
+      </c>
+      <c r="G276">
+        <v>0.1084010840108401</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>19</v>
+      </c>
+      <c r="B277">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C277">
+        <v>2.5</v>
+      </c>
+      <c r="D277">
+        <v>138</v>
+      </c>
+      <c r="E277" t="b">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>18.45</v>
+      </c>
+      <c r="G277">
+        <v>0.13550135501355021</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>21</v>
+      </c>
+      <c r="B278">
+        <v>6.8</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>138</v>
+      </c>
+      <c r="E278" t="b">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>18.45</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>22</v>
+      </c>
+      <c r="B279">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>138</v>
+      </c>
+      <c r="E279" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>18.45</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>25</v>
+      </c>
+      <c r="B280">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>138</v>
+      </c>
+      <c r="E280" t="b">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>18.45</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>